--- a/Dorey_script/SupplementaryTables_S1–6.xlsx
+++ b/Dorey_script/SupplementaryTables_S1–6.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesdorey/Desktop/Uni/My_papers/Elisha_Hons_paper/Honours/Dorey_script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25B0353-0EC1-7B47-86F2-E51E57BD105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA88B0F-80A5-9F43-8321-6AC7D1E7C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="500" windowWidth="25020" windowHeight="17440" activeTab="5" xr2:uid="{93F7876E-F456-FA42-A11A-9A49C3A63864}"/>
+    <workbookView xWindow="15420" yWindow="500" windowWidth="25020" windowHeight="17440" activeTab="3" xr2:uid="{93F7876E-F456-FA42-A11A-9A49C3A63864}"/>
   </bookViews>
   <sheets>
     <sheet name="shapiro.test" sheetId="1" r:id="rId1"/>
     <sheet name="Rfit_indices" sheetId="2" r:id="rId2"/>
-    <sheet name="Rfit_InfectionDivers" sheetId="4" r:id="rId3"/>
+    <sheet name="Rfit_InfectionDrivers" sheetId="4" r:id="rId3"/>
     <sheet name="Rfit_DiversityRichness" sheetId="5" r:id="rId4"/>
     <sheet name="Rfit_area" sheetId="6" r:id="rId5"/>
     <sheet name="SpeciesValues" sheetId="3" r:id="rId6"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B19BD8F-AFC2-804C-9CD6-4FB069BC02A4}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:F35"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1836,7 +1836,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2345,11 +2345,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52094E53-0DB4-EA4C-BBCB-536ACA6FB929}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
@@ -2425,7 +2428,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>7.5905E-3</v>
@@ -2445,7 +2448,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>-0.80111960000000004</v>
@@ -2793,7 +2796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82104B4-1C31-834F-AD98-04B252774FF6}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
